--- a/src/testResult.xlsx
+++ b/src/testResult.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Name test</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>TC_07</t>
+  </si>
+  <si>
+    <t>Test on Firefox</t>
   </si>
 </sst>
 </file>
@@ -84,8 +87,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
@@ -113,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -201,6 +222,60 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s" s="13">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
